--- a/01_Requirements/LedgerTypes/012_Employee Pay sheet ledger.xlsx
+++ b/01_Requirements/LedgerTypes/012_Employee Pay sheet ledger.xlsx
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,109 +356,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,11 +746,11 @@
   </sheetPr>
   <dimension ref="D2:J42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="60.28515625" style="1" customWidth="1"/>
@@ -759,426 +759,414 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="24.95" customHeight="1">
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
+    <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="9" t="s">
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="14" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="29"/>
+    </row>
+    <row r="7" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="29"/>
+    </row>
+    <row r="8" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="14" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+    </row>
+    <row r="9" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="14" t="s">
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="14" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="14" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="14" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="14"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="14" t="s">
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="14"/>
-      <c r="E21" s="23" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D21" s="5"/>
+      <c r="E21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="14"/>
-      <c r="E22" s="23" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D22" s="5"/>
+      <c r="E22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D24" s="14" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="14"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="14" t="s">
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D26" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D27" s="14"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D28" s="14" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="14" t="s">
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="26" t="s">
+      <c r="H30" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D31" s="14"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D32" s="14" t="s">
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="14"/>
-      <c r="E33" s="23" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D33" s="5"/>
+      <c r="E33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D34" s="14"/>
-      <c r="E34" s="23" t="s">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D34" s="5"/>
+      <c r="E34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="14"/>
-      <c r="E35" s="23" t="s">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D35" s="5"/>
+      <c r="E35" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D36" s="14"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D37" s="27" t="s">
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="30"/>
       <c r="J37" s="31"/>
     </row>
-    <row r="39" spans="4:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="4:10" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D40" s="32" t="s">
+    <row r="39" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="40" spans="4:10" ht="45.6" customHeight="1" thickBot="1">
+      <c r="D40" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="34"/>
-    </row>
-    <row r="42" spans="4:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="42" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="E32:H32"/>
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="I5:J37"/>
     <mergeCell ref="E6:H6"/>
@@ -1189,6 +1177,18 @@
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="D40:J40"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
